--- a/plotly/RnPy/express.xlsx
+++ b/plotly/RnPy/express.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11484" windowHeight="2724"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="11484" windowHeight="2724" firstSheet="8" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="plotly.express.scatter" sheetId="2" r:id="rId1"/>
@@ -813,10 +813,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>equirectangular', 'mercator', 'orthographic', 'natural earth', 'kavrayskiy7', 'miller', 'robinson', 'eckert4', 'azimuthal equal area', 'azimuthal equidistant', 'conic equal area', 'conic conformal', 'conic equidistant', 'gnomonic', 'stereographic', 'mollweide', 'hammer', 'transverse mercator', 'albers usa', 'winkel tripel', 'aitoff', or 'sinusoidal'`Default depends on `scope</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>locations</t>
     </r>
@@ -911,6 +907,10 @@
   </si>
   <si>
     <t>적용할 template 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equirectangular', 'mercator', 'orthographic', 'natural earth', 'kavrayskiy7', 'miller', 'robinson', 'eckert4', 'azimuthal equal area', 'azimuthal equidistant', 'conic equal area', 'conic conformal', 'conic equidistant', 'gnomonic', 'stereographic', 'mollweide', 'hammer', 'transverse mercator', 'albers usa', 'winkel tripel', 'aitoff', or 'sinusoidal'`Default depends on `scope</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1449,8 +1449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.4"/>
@@ -1590,7 +1590,7 @@
         <v>85</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
@@ -1683,13 +1683,13 @@
     </row>
     <row r="21" spans="1:3" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B21" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="C21" s="33" t="s">
         <v>172</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
@@ -1777,8 +1777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1812,7 +1812,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>80</v>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>153</v>
@@ -1856,10 +1856,10 @@
     </row>
     <row r="7" spans="1:3" ht="132.6" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>155</v>
@@ -1889,7 +1889,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>76</v>
@@ -1913,7 +1913,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2011,7 +2011,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C7" sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2110,7 +2110,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>109</v>
@@ -2251,7 +2251,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C4" sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2316,7 +2316,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2417,7 +2417,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C3" sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2474,7 +2474,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C5" sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2497,7 +2497,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>80</v>
@@ -2508,7 +2508,7 @@
     </row>
     <row r="3" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.4">
       <c r="A3" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>141</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>142</v>
@@ -2530,7 +2530,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>38</v>
